--- a/medicine/Psychotrope/Château_Bouscaut/Château_Bouscaut.xlsx
+++ b/medicine/Psychotrope/Château_Bouscaut/Château_Bouscaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bouscaut</t>
+          <t>Château_Bouscaut</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château Bouscaut, est un domaine viticole situé à Cadaujac en Gironde. Situé en AOC pessac-léognan, il est classé grand cru dans le classement des vins de Graves.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bouscaut</t>
+          <t>Château_Bouscaut</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire du domaine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le domaine se développe au XVIIe siècle. Avant la Première Guerre mondiale, le vignoble est cité comme propriété modèle par la Chambre d'Agriculture[réf. nécessaire]. Un cheval du nom de Château Bouscaut gagne en 1930 un grand prix de Maisons-Laffitte[pertinence contestée]. Un grand prix se court encore aujourd'hui sous le nom de Château Bouscaut. En 1953, le domaine reçoit le titre de Cru Classé de Graves blancs et rouges. En 1962, le château est détruit par un incendie et reconstruit à l'identique.
 De 1968 à 1979, le domaine est entre les mains d'un groupe d'investisseurs américains. Il est acquis par Lucien Lurton, le propriétaire du Château Brane-Cantenac entre autres en 1979. Sophie Lurton-Cogombles, fille de Lucien Lurton, tient les rênes de Bouscaut avec son mari Laurent Cogombles depuis 1992.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bouscaut</t>
+          <t>Château_Bouscaut</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Terroir</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terroir est constitué de terres argilo-graveleuses sur socle calcaire. Les vins rouges sont constitués de merlot à plus de 50 %, de cabernet sauvignon à 40 % et enfin une petite partie de malbec ou côt. Les vins blancs sont élaborés à partir du sémillon à 50 % et du sauvignon à 50 %.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_Bouscaut</t>
+          <t>Château_Bouscaut</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Vin</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château Bouscaut produit 100 000 bouteilles du premier vin rouge et 20 000 de premier vin blanc Château Bouscaut. Le second vin Les Chênes de Bouscaut est produit à 60 000 en rouge et 25 000 en blanc. Le domaine produit également les châteaux voisins Lamothe-Bouscaut (acquis en 1999) et Valoux (rattaché à Bouscaut en 1929).
 </t>
